--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,13 +43,16 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>defective</t>
+    <t>stopped</t>
   </si>
   <si>
     <t>returned</t>
@@ -58,16 +61,19 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>negative</t>
@@ -79,184 +85,202 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>rice</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
@@ -268,73 +292,52 @@
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>last</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>better</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>handle</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>made</t>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,13 +776,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,16 +847,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8808049535603715</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6521739130434783</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -941,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8792569659442725</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>568</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4141414141414141</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.7826086956521739</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4108527131782946</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3962264150943396</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.282051282051282</v>
+        <v>0.32</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7123287671232876</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1351351351351351</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,89 +1226,137 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1271186440677966</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>97</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.6712328767123288</v>
+      </c>
+      <c r="L12">
+        <v>49</v>
+      </c>
+      <c r="M12">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>155</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1013513513513514</v>
+      </c>
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>103</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.7016949152542373</v>
-      </c>
-      <c r="L12">
-        <v>207</v>
-      </c>
-      <c r="M12">
-        <v>207</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.6753246753246753</v>
-      </c>
-      <c r="L13">
-        <v>52</v>
-      </c>
-      <c r="M13">
-        <v>52</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>133</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.6581059390048154</v>
+        <v>0.6476725521669342</v>
       </c>
       <c r="L14">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="M14">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1348,16 +1399,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.631578947368421</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L18">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1447,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.5576923076923077</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L20">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1473,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.5555555555555556</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L21">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1499,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.5538461538461539</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1525,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5428571428571428</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1551,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1577,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5416666666666666</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1603,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1629,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5329341317365269</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L27">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1655,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5301204819277109</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1681,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5263157894736842</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1707,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.47</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1733,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4586466165413534</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1759,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.427710843373494</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L32">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1785,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4007782101167315</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L33">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1811,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3872549019607843</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1837,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.3673469387755102</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1863,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.3673469387755102</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1889,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3650793650793651</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1915,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3552631578947368</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1941,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3538461538461539</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1967,15 +2018,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.3529411764705883</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L40">
         <v>18</v>
@@ -1993,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.3465753424657534</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L41">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2019,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>477</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.3442622950819672</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2045,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.3397260273972603</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2071,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>54</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.3035714285714285</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2097,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.2966507177033493</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L45">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2123,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.2949640287769784</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2149,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.2903225806451613</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2175,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.2857142857142857</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2201,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.2792792792792793</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2227,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.2772277227722773</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2253,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.2685185185185185</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2279,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.2619047619047619</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2305,21 +2356,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.2522522522522522</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2331,21 +2382,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.2518837459634015</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="L54">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2357,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>695</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.2450331125827815</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L55">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2383,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.231974921630094</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L56">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="M56">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2409,47 +2460,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>245</v>
+        <v>697</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.2163892445582586</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L57">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="M57">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>612</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.2083333333333333</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2461,21 +2512,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>57</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.2066225165562914</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L59">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M59">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2487,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K60">
-        <v>0.1973684210526316</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2513,47 +2564,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>0.1815718157181572</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L61">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>302</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>0.174496644295302</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2565,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K63">
-        <v>0.1739130434782609</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2591,47 +2642,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K64">
-        <v>0.1607142857142857</v>
+        <v>0.1864864864864865</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N64">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>94</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K65">
-        <v>0.1586715867158671</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L65">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2643,47 +2694,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>228</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K66">
-        <v>0.1526195899772209</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L66">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>372</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>0.1513157894736842</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L67">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M67">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2695,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>387</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K68">
-        <v>0.1479713603818616</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L68">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2721,21 +2772,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>357</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K69">
-        <v>0.1402439024390244</v>
+        <v>0.1503579952267303</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2747,47 +2798,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>141</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K70">
-        <v>0.139344262295082</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K71">
-        <v>0.1367521367521368</v>
+        <v>0.1402214022140221</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2799,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>0.1299435028248588</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2825,47 +2876,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>154</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>0.1287128712871287</v>
+        <v>0.1337719298245614</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>176</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K74">
-        <v>0.1230769230769231</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2877,21 +2928,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>114</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K75">
-        <v>0.1217948717948718</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2903,21 +2954,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K76">
-        <v>0.1176470588235294</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2929,21 +2980,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>210</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K77">
-        <v>0.1167883211678832</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L77">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2955,21 +3006,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>363</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K78">
-        <v>0.1162790697674419</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2981,47 +3032,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K79">
-        <v>0.1137931034482759</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L79">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K80">
-        <v>0.1111111111111111</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L80">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3033,125 +3084,125 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>240</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K81">
-        <v>0.09202453987730061</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>148</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K82">
-        <v>0.09056956115779645</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L82">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>974</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K83">
-        <v>0.09041095890410959</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="L83">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M83">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>332</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K84">
-        <v>0.08189655172413793</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L84">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M84">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>639</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K85">
-        <v>0.07692307692307693</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3163,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K86">
-        <v>0.07258064516129033</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3189,47 +3240,47 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K87">
-        <v>0.06276150627615062</v>
+        <v>0.05826086956521739</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>224</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K88">
-        <v>0.0583756345177665</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="L88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3241,137 +3292,111 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K89">
-        <v>0.05350553505535055</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="L89">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M89">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K90">
-        <v>0.05103806228373702</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="L90">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M90">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N90">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1097</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K91">
-        <v>0.05097087378640777</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N91">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O91">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>391</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K92">
-        <v>0.05</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="L92">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N92">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="O92">
-        <v>0.06999999999999995</v>
+        <v>0.26</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K93">
-        <v>0.02763157894736842</v>
-      </c>
-      <c r="L93">
-        <v>21</v>
-      </c>
-      <c r="M93">
-        <v>28</v>
-      </c>
-      <c r="N93">
-        <v>0.75</v>
-      </c>
-      <c r="O93">
-        <v>0.25</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
